--- a/cam/RP2040-Eins-20231112-JLCPCB-BOM-WSON.xlsx
+++ b/cam/RP2040-Eins-20231112-JLCPCB-BOM-WSON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-Eins\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E2F0DD-6251-42FB-B834-3209494CB3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F425D7-8E7B-44C6-AC58-3ABAA1E0CEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4548" yWindow="4092" windowWidth="12336" windowHeight="18756" xr2:uid="{7B845E16-6401-438E-89AD-84A195B2B6BE}"/>
+    <workbookView xWindow="9552" yWindow="2028" windowWidth="12336" windowHeight="18756" xr2:uid="{7B845E16-6401-438E-89AD-84A195B2B6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,9 +334,6 @@
     <t>C15127</t>
   </si>
   <si>
-    <t>C377102</t>
-  </si>
-  <si>
     <t>C5158049</t>
   </si>
   <si>
@@ -388,10 +385,13 @@
     <t>C40877</t>
   </si>
   <si>
-    <t>C920875</t>
-  </si>
-  <si>
     <t>C2685154</t>
+  </si>
+  <si>
+    <t>C2935953</t>
+  </si>
+  <si>
+    <t>C106074</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,10 +897,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -914,10 +914,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -971,7 +971,7 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -1084,10 +1084,10 @@
         <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>107</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>81</v>
@@ -1118,10 +1118,10 @@
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -1135,10 +1135,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
@@ -1203,10 +1203,10 @@
         <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -1240,7 +1240,7 @@
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
         <v>49</v>
@@ -1257,7 +1257,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
@@ -1271,10 +1271,10 @@
         <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
         <v>106</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>54</v>
@@ -1291,7 +1291,7 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -1305,10 +1305,10 @@
         <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
